--- a/data/pca/factorExposure/factorExposure_2008-12-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2008-12-11.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01875386863739989</v>
+        <v>-0.01731440703998492</v>
       </c>
       <c r="C2">
-        <v>0.01426701942661666</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.01608156553246004</v>
+      </c>
+      <c r="D2">
+        <v>-0.02029282375639282</v>
+      </c>
+      <c r="E2">
+        <v>-0.02015200792870783</v>
+      </c>
+      <c r="F2">
+        <v>0.01126106418487915</v>
+      </c>
+      <c r="G2">
+        <v>0.006407475017004201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +757,367 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.08079721015974993</v>
+        <v>-0.08407886529650137</v>
       </c>
       <c r="C4">
-        <v>0.08630615620474862</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.08888805898122247</v>
+      </c>
+      <c r="D4">
+        <v>0.05126548479916142</v>
+      </c>
+      <c r="E4">
+        <v>-0.04116238229990844</v>
+      </c>
+      <c r="F4">
+        <v>-0.0003099014973482705</v>
+      </c>
+      <c r="G4">
+        <v>0.04158037742592958</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.005116224912051106</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>-0.0006226579923316559</v>
+      </c>
+      <c r="D5">
+        <v>-7.543057913807635e-05</v>
+      </c>
+      <c r="E5">
+        <v>0.00391435046443205</v>
+      </c>
+      <c r="F5">
+        <v>-0.005444616275601676</v>
+      </c>
+      <c r="G5">
+        <v>-0.003011979126354178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1683695488738845</v>
+        <v>-0.1694005043027017</v>
       </c>
       <c r="C6">
-        <v>-0.01597124887257402</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.00695037926234475</v>
+      </c>
+      <c r="D6">
+        <v>0.06159083692690841</v>
+      </c>
+      <c r="E6">
+        <v>0.0588360143661147</v>
+      </c>
+      <c r="F6">
+        <v>-0.06253136381023405</v>
+      </c>
+      <c r="G6">
+        <v>0.03514628732936455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05047314821731172</v>
+        <v>-0.05290860203797072</v>
       </c>
       <c r="C7">
-        <v>0.06157341465036219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.0626897194079621</v>
+      </c>
+      <c r="D7">
+        <v>0.05575562244873403</v>
+      </c>
+      <c r="E7">
+        <v>-0.07196560449660572</v>
+      </c>
+      <c r="F7">
+        <v>0.04994410554785094</v>
+      </c>
+      <c r="G7">
+        <v>0.05505875478390048</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.04689603440842732</v>
+        <v>-0.04573715839865845</v>
       </c>
       <c r="C8">
-        <v>0.06128432758006654</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.0590100620995631</v>
+      </c>
+      <c r="D8">
+        <v>-0.02347277337855517</v>
+      </c>
+      <c r="E8">
+        <v>-0.03666317222176057</v>
+      </c>
+      <c r="F8">
+        <v>0.0201224308272238</v>
+      </c>
+      <c r="G8">
+        <v>-0.02081363246879571</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.05677756914746165</v>
+        <v>-0.06200416726966464</v>
       </c>
       <c r="C9">
-        <v>0.09612098227936905</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.09631770609271456</v>
+      </c>
+      <c r="D9">
+        <v>0.08779162416252063</v>
+      </c>
+      <c r="E9">
+        <v>-0.05013973907246894</v>
+      </c>
+      <c r="F9">
+        <v>-0.00812427156383155</v>
+      </c>
+      <c r="G9">
+        <v>0.01836961795246453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1194478935404699</v>
+        <v>-0.1038511363397716</v>
       </c>
       <c r="C10">
-        <v>-0.1537983435044501</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.1377877556603272</v>
+      </c>
+      <c r="D10">
+        <v>-0.07300546126157781</v>
+      </c>
+      <c r="E10">
+        <v>-0.05013219556402688</v>
+      </c>
+      <c r="F10">
+        <v>0.03279726900761598</v>
+      </c>
+      <c r="G10">
+        <v>-0.04276479536665661</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.07895541599091267</v>
+        <v>-0.07623590916714593</v>
       </c>
       <c r="C11">
-        <v>0.1385596409755659</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.1376388540552551</v>
+      </c>
+      <c r="D11">
+        <v>0.05232829491904804</v>
+      </c>
+      <c r="E11">
+        <v>-0.06049139080327657</v>
+      </c>
+      <c r="F11">
+        <v>-0.001877858130541355</v>
+      </c>
+      <c r="G11">
+        <v>-0.001533001330317478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.07999172706765534</v>
+        <v>-0.07591905501936252</v>
       </c>
       <c r="C12">
-        <v>0.1664734992357653</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.1632297446948126</v>
+      </c>
+      <c r="D12">
+        <v>0.04953289459461726</v>
+      </c>
+      <c r="E12">
+        <v>-0.06311353278928035</v>
+      </c>
+      <c r="F12">
+        <v>0.03405236891026579</v>
+      </c>
+      <c r="G12">
+        <v>0.008367318240711888</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.04004863352605279</v>
+        <v>-0.04214726211710885</v>
       </c>
       <c r="C13">
-        <v>0.07368360200841211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.07784904439439641</v>
+      </c>
+      <c r="D13">
+        <v>0.03404355523673212</v>
+      </c>
+      <c r="E13">
+        <v>-0.07774201211394417</v>
+      </c>
+      <c r="F13">
+        <v>0.04326146265937091</v>
+      </c>
+      <c r="G13">
+        <v>0.01728238717317339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.02042228382627048</v>
+        <v>-0.02284813652374309</v>
       </c>
       <c r="C14">
-        <v>0.04969525183117854</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.05224944415635826</v>
+      </c>
+      <c r="D14">
+        <v>0.04873780769519768</v>
+      </c>
+      <c r="E14">
+        <v>-0.06641414471419428</v>
+      </c>
+      <c r="F14">
+        <v>0.002515795763136429</v>
+      </c>
+      <c r="G14">
+        <v>-0.01679495573927007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03261658015972028</v>
+        <v>-0.03258401846566569</v>
       </c>
       <c r="C15">
-        <v>0.06692251306718691</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.06484997692391074</v>
+      </c>
+      <c r="D15">
+        <v>0.04667111026747726</v>
+      </c>
+      <c r="E15">
+        <v>-0.0116712400281</v>
+      </c>
+      <c r="F15">
+        <v>0.02988870381989703</v>
+      </c>
+      <c r="G15">
+        <v>0.009641560216244899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05771860394298212</v>
+        <v>-0.05597985700263938</v>
       </c>
       <c r="C16">
-        <v>0.1588697532182222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.1580167645977661</v>
+      </c>
+      <c r="D16">
+        <v>0.04802633384531706</v>
+      </c>
+      <c r="E16">
+        <v>-0.04813951583459323</v>
+      </c>
+      <c r="F16">
+        <v>-0.01516838216628591</v>
+      </c>
+      <c r="G16">
+        <v>-0.008663685358935466</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.008501861543217241</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>-0.003964869145356427</v>
+      </c>
+      <c r="D17">
+        <v>-0.00355940182228443</v>
+      </c>
+      <c r="E17">
+        <v>0.01061745506501815</v>
+      </c>
+      <c r="F17">
+        <v>0.01167855143390655</v>
+      </c>
+      <c r="G17">
+        <v>-0.01314401690972106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.04599629900107141</v>
+        <v>-0.05654163172733603</v>
       </c>
       <c r="C18">
-        <v>0.05487985215646207</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.04732125750167438</v>
+      </c>
+      <c r="D18">
+        <v>-0.004181254765773249</v>
+      </c>
+      <c r="E18">
+        <v>0.05812700465880315</v>
+      </c>
+      <c r="F18">
+        <v>-0.03106767317034653</v>
+      </c>
+      <c r="G18">
+        <v>0.005509241679800182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.05853766699816912</v>
+        <v>-0.05736492623028114</v>
       </c>
       <c r="C20">
-        <v>0.1090440839455216</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.1061010311317065</v>
+      </c>
+      <c r="D20">
+        <v>0.06704185791760944</v>
+      </c>
+      <c r="E20">
+        <v>-0.04712662865061508</v>
+      </c>
+      <c r="F20">
+        <v>0.02605833924800719</v>
+      </c>
+      <c r="G20">
+        <v>0.00304958285757535</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.04286543753294794</v>
+        <v>-0.04484398516991656</v>
       </c>
       <c r="C21">
-        <v>0.06891391248874333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.06531553656888404</v>
+      </c>
+      <c r="D21">
+        <v>0.0302956775704358</v>
+      </c>
+      <c r="E21">
+        <v>-0.05443031223060993</v>
+      </c>
+      <c r="F21">
+        <v>-0.003511202056879626</v>
+      </c>
+      <c r="G21">
+        <v>0.02732481505508349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.04527445706983546</v>
+        <v>-0.04546253242697772</v>
       </c>
       <c r="C22">
-        <v>0.03668945721385612</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.03878076971296048</v>
+      </c>
+      <c r="D22">
+        <v>-0.1188699298759686</v>
+      </c>
+      <c r="E22">
+        <v>0.03751574251635857</v>
+      </c>
+      <c r="F22">
+        <v>-0.1462357586027403</v>
+      </c>
+      <c r="G22">
+        <v>-0.07881523489716988</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.04528454604884456</v>
+        <v>-0.04547130899645153</v>
       </c>
       <c r="C23">
-        <v>0.0366821350453104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.03877441870147558</v>
+      </c>
+      <c r="D23">
+        <v>-0.1189043274227074</v>
+      </c>
+      <c r="E23">
+        <v>0.03751451781153652</v>
+      </c>
+      <c r="F23">
+        <v>-0.1462609633538188</v>
+      </c>
+      <c r="G23">
+        <v>-0.07888508415707803</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06540373691440841</v>
+        <v>-0.06391248992422593</v>
       </c>
       <c r="C24">
-        <v>0.1436614715125726</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.1403588915716511</v>
+      </c>
+      <c r="D24">
+        <v>0.05312046568894842</v>
+      </c>
+      <c r="E24">
+        <v>-0.05486302782543483</v>
+      </c>
+      <c r="F24">
+        <v>0.007434641068978028</v>
+      </c>
+      <c r="G24">
+        <v>0.002221283228947234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.07286100719487155</v>
+        <v>-0.07013064279266579</v>
       </c>
       <c r="C25">
-        <v>0.1301327123475491</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.1277433720839067</v>
+      </c>
+      <c r="D25">
+        <v>0.05382692593712465</v>
+      </c>
+      <c r="E25">
+        <v>-0.07907316590775512</v>
+      </c>
+      <c r="F25">
+        <v>0.03244291118273086</v>
+      </c>
+      <c r="G25">
+        <v>0.02639299940247227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.05757662876980616</v>
+        <v>-0.06127144062352521</v>
       </c>
       <c r="C26">
-        <v>0.07350010914917819</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.07779915420032969</v>
+      </c>
+      <c r="D26">
+        <v>0.02421771078915609</v>
+      </c>
+      <c r="E26">
+        <v>-0.07626212852394651</v>
+      </c>
+      <c r="F26">
+        <v>0.03533917732632123</v>
+      </c>
+      <c r="G26">
+        <v>-0.000782027565921359</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1309,252 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1716025956585966</v>
+        <v>-0.1761161902591747</v>
       </c>
       <c r="C28">
-        <v>-0.2238915752984122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.2260946312776902</v>
+      </c>
+      <c r="D28">
+        <v>0.02343047625909216</v>
+      </c>
+      <c r="E28">
+        <v>-0.1419740835464251</v>
+      </c>
+      <c r="F28">
+        <v>0.07049962485665429</v>
+      </c>
+      <c r="G28">
+        <v>-0.02643176411276909</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.02554753061891225</v>
+        <v>-0.02690211894704998</v>
       </c>
       <c r="C29">
-        <v>0.05594533498204396</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.05594642375251278</v>
+      </c>
+      <c r="D29">
+        <v>0.01643255908327155</v>
+      </c>
+      <c r="E29">
+        <v>-0.07034577210540278</v>
+      </c>
+      <c r="F29">
+        <v>-0.0007510589802910206</v>
+      </c>
+      <c r="G29">
+        <v>-0.01591545980334177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03003724610861741</v>
+        <v>-0.03360123006513983</v>
       </c>
       <c r="C30">
-        <v>0.07231340929284512</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.07670319719587994</v>
+      </c>
+      <c r="D30">
+        <v>0.1302701282898186</v>
+      </c>
+      <c r="E30">
+        <v>-0.05651287705666909</v>
+      </c>
+      <c r="F30">
+        <v>0.07325081739575394</v>
+      </c>
+      <c r="G30">
+        <v>0.01828158615309013</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05433557383357224</v>
+        <v>-0.05315151737289631</v>
       </c>
       <c r="C31">
-        <v>0.036504314355673</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.03887880034395042</v>
+      </c>
+      <c r="D31">
+        <v>-0.003567819324821944</v>
+      </c>
+      <c r="E31">
+        <v>-0.02061571513721876</v>
+      </c>
+      <c r="F31">
+        <v>-0.05019211328792633</v>
+      </c>
+      <c r="G31">
+        <v>0.00755497605857281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.04472087674066159</v>
+        <v>-0.04803666727928393</v>
       </c>
       <c r="C32">
-        <v>0.05884270704885206</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.05613398616989156</v>
+      </c>
+      <c r="D32">
+        <v>0.01059028825868232</v>
+      </c>
+      <c r="E32">
+        <v>-0.005170304491572571</v>
+      </c>
+      <c r="F32">
+        <v>0.04542737821308199</v>
+      </c>
+      <c r="G32">
+        <v>0.001109985272394135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07860750657417305</v>
+        <v>-0.08285174767620297</v>
       </c>
       <c r="C33">
-        <v>0.1141527049615407</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.1227458241247509</v>
+      </c>
+      <c r="D33">
+        <v>0.05924697272221214</v>
+      </c>
+      <c r="E33">
+        <v>-0.05276510248915715</v>
+      </c>
+      <c r="F33">
+        <v>0.004534825908935648</v>
+      </c>
+      <c r="G33">
+        <v>-0.01826795217623752</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05159747745255108</v>
+        <v>-0.05091233010838944</v>
       </c>
       <c r="C34">
-        <v>0.1326440720589712</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.1316158630299512</v>
+      </c>
+      <c r="D34">
+        <v>0.09684894020710928</v>
+      </c>
+      <c r="E34">
+        <v>-0.03705523357070906</v>
+      </c>
+      <c r="F34">
+        <v>-0.01521326136098566</v>
+      </c>
+      <c r="G34">
+        <v>-0.03247864535833303</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.0285242323993291</v>
+        <v>-0.0305482368255988</v>
       </c>
       <c r="C35">
-        <v>0.01719624454116446</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.02025525343724952</v>
+      </c>
+      <c r="D35">
+        <v>0.01670669028257703</v>
+      </c>
+      <c r="E35">
+        <v>-0.01733095588691019</v>
+      </c>
+      <c r="F35">
+        <v>0.01185510764842559</v>
+      </c>
+      <c r="G35">
+        <v>-0.02487176685246939</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02835427297963989</v>
+        <v>-0.03043983421597598</v>
       </c>
       <c r="C36">
-        <v>0.05718914105289336</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.05552688211794442</v>
+      </c>
+      <c r="D36">
+        <v>0.06926439687504274</v>
+      </c>
+      <c r="E36">
+        <v>0.008685403828285528</v>
+      </c>
+      <c r="F36">
+        <v>-0.01899175621522651</v>
+      </c>
+      <c r="G36">
+        <v>-0.06434606932827637</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>0.0004144643896959668</v>
+        <v>-0.004802059317508025</v>
       </c>
       <c r="C37">
-        <v>-0.0004235244196786617</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>-0.006762662754877228</v>
+      </c>
+      <c r="D37">
+        <v>0.001449149731840765</v>
+      </c>
+      <c r="E37">
+        <v>-0.01366549980060371</v>
+      </c>
+      <c r="F37">
+        <v>-0.0002297069358207179</v>
+      </c>
+      <c r="G37">
+        <v>0.005163958097454513</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1562,91 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.07847806098089372</v>
+        <v>-0.07369021602266929</v>
       </c>
       <c r="C39">
-        <v>0.1579275118595467</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.1514445180597088</v>
+      </c>
+      <c r="D39">
+        <v>0.01352012290500478</v>
+      </c>
+      <c r="E39">
+        <v>-0.1184746386202146</v>
+      </c>
+      <c r="F39">
+        <v>0.004747064191481678</v>
+      </c>
+      <c r="G39">
+        <v>0.01659233141702177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.05054982089427813</v>
+        <v>-0.05347589344383345</v>
       </c>
       <c r="C40">
-        <v>0.07533884371981561</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.08033079691177293</v>
+      </c>
+      <c r="D40">
+        <v>0.01788956683298766</v>
+      </c>
+      <c r="E40">
+        <v>-0.03123078265948377</v>
+      </c>
+      <c r="F40">
+        <v>0.05525671523317078</v>
+      </c>
+      <c r="G40">
+        <v>-0.03452570330279251</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.03073024765162746</v>
+        <v>-0.03034348291364734</v>
       </c>
       <c r="C41">
-        <v>0.02308443224819444</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.02513778734497681</v>
+      </c>
+      <c r="D41">
+        <v>-0.009065159672143108</v>
+      </c>
+      <c r="E41">
+        <v>0.01016569614056051</v>
+      </c>
+      <c r="F41">
+        <v>0.009936446296312141</v>
+      </c>
+      <c r="G41">
+        <v>-0.006891174785694463</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1654,206 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04454736653079621</v>
+        <v>-0.04232411426441523</v>
       </c>
       <c r="C43">
-        <v>0.04060844963737439</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.03892682469050605</v>
+      </c>
+      <c r="D43">
+        <v>-0.015129170992141</v>
+      </c>
+      <c r="E43">
+        <v>-0.0201291977404634</v>
+      </c>
+      <c r="F43">
+        <v>-0.03599571523677981</v>
+      </c>
+      <c r="G43">
+        <v>-0.02300371339891026</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.05604707587803268</v>
+        <v>-0.059997069325285</v>
       </c>
       <c r="C44">
-        <v>0.09642869477048872</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.0995102875483915</v>
+      </c>
+      <c r="D44">
+        <v>0.3207043126922338</v>
+      </c>
+      <c r="E44">
+        <v>-0.0538029085750706</v>
+      </c>
+      <c r="F44">
+        <v>0.005937555646697477</v>
+      </c>
+      <c r="G44">
+        <v>-0.1129054396090721</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0007593525736052498</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>-0.0009604013873444624</v>
+      </c>
+      <c r="D45">
+        <v>-0.0009113582569993963</v>
+      </c>
+      <c r="E45">
+        <v>-0.002576693221407451</v>
+      </c>
+      <c r="F45">
+        <v>-0.003250316635992609</v>
+      </c>
+      <c r="G45">
+        <v>0.00742217706602705</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02866321416699956</v>
+        <v>-0.02983764003776553</v>
       </c>
       <c r="C46">
-        <v>0.0473530878604301</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.04463976487475353</v>
+      </c>
+      <c r="D46">
+        <v>-0.006690261824862091</v>
+      </c>
+      <c r="E46">
+        <v>-0.06887570062032743</v>
+      </c>
+      <c r="F46">
+        <v>-0.02335307590051204</v>
+      </c>
+      <c r="G46">
+        <v>-0.003776830406188794</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05530566650692802</v>
+        <v>-0.05287176915428447</v>
       </c>
       <c r="C47">
-        <v>0.04769846410821647</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.04639558745508009</v>
+      </c>
+      <c r="D47">
+        <v>-0.04531305632605957</v>
+      </c>
+      <c r="E47">
+        <v>0.0128898280073595</v>
+      </c>
+      <c r="F47">
+        <v>-0.08494193860241209</v>
+      </c>
+      <c r="G47">
+        <v>-0.005817823847102705</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.04847761493620418</v>
+        <v>-0.04991442876665936</v>
       </c>
       <c r="C48">
-        <v>0.0685556240602249</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.0691935219045271</v>
+      </c>
+      <c r="D48">
+        <v>0.04322947873753435</v>
+      </c>
+      <c r="E48">
+        <v>-0.05445034719002794</v>
+      </c>
+      <c r="F48">
+        <v>0.001197795506790751</v>
+      </c>
+      <c r="G48">
+        <v>0.04475803408151513</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1830865463083545</v>
+        <v>-0.1904976414954598</v>
       </c>
       <c r="C49">
-        <v>-0.02989012231387392</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.02642198975346492</v>
+      </c>
+      <c r="D49">
+        <v>0.03248590544731182</v>
+      </c>
+      <c r="E49">
+        <v>0.03422404463621186</v>
+      </c>
+      <c r="F49">
+        <v>0.1220402875841602</v>
+      </c>
+      <c r="G49">
+        <v>0.03989240185991198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05380263371291989</v>
+        <v>-0.05332559104354382</v>
       </c>
       <c r="C50">
-        <v>0.03680788636908586</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.03982331929364547</v>
+      </c>
+      <c r="D50">
+        <v>0.01086155519649655</v>
+      </c>
+      <c r="E50">
+        <v>-0.01137764381549506</v>
+      </c>
+      <c r="F50">
+        <v>-0.04494844365362573</v>
+      </c>
+      <c r="G50">
+        <v>0.01984758457185392</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1861,137 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.1404570015233723</v>
+        <v>-0.135637047336203</v>
       </c>
       <c r="C52">
-        <v>0.03479972303184205</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>-0.03311076188500941</v>
+      </c>
+      <c r="D52">
+        <v>0.0214733751974718</v>
+      </c>
+      <c r="E52">
+        <v>0.07817329668549385</v>
+      </c>
+      <c r="F52">
+        <v>-0.1296436557423551</v>
+      </c>
+      <c r="G52">
+        <v>0.02501928041923896</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1677321020327631</v>
+        <v>-0.1616405438357011</v>
       </c>
       <c r="C53">
-        <v>-0.0116537658078299</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.01044839009690461</v>
+      </c>
+      <c r="D53">
+        <v>0.03360993420296396</v>
+      </c>
+      <c r="E53">
+        <v>0.1113366097326002</v>
+      </c>
+      <c r="F53">
+        <v>-0.170272504076354</v>
+      </c>
+      <c r="G53">
+        <v>0.0605661118436325</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01318520807125893</v>
+        <v>-0.0140793925195746</v>
       </c>
       <c r="C54">
-        <v>0.04119752978231656</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.04245200991988967</v>
+      </c>
+      <c r="D54">
+        <v>0.01772521736671294</v>
+      </c>
+      <c r="E54">
+        <v>-0.03790654453710038</v>
+      </c>
+      <c r="F54">
+        <v>0.004728606933697946</v>
+      </c>
+      <c r="G54">
+        <v>0.001754048796269887</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.1213960686016673</v>
+        <v>-0.1196688891312352</v>
       </c>
       <c r="C55">
-        <v>0.01661215707193157</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.01719999737263199</v>
+      </c>
+      <c r="D55">
+        <v>0.030245423807182</v>
+      </c>
+      <c r="E55">
+        <v>0.0452975002839116</v>
+      </c>
+      <c r="F55">
+        <v>-0.1923323234182131</v>
+      </c>
+      <c r="G55">
+        <v>0.05302468049347328</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1803713154255844</v>
+        <v>-0.1756310069598042</v>
       </c>
       <c r="C56">
-        <v>-0.008934497742824437</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.0104485993052622</v>
+      </c>
+      <c r="D56">
+        <v>-0.007799010211757013</v>
+      </c>
+      <c r="E56">
+        <v>0.1437649447559569</v>
+      </c>
+      <c r="F56">
+        <v>-0.1803178437203756</v>
+      </c>
+      <c r="G56">
+        <v>0.08844303757094969</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1999,436 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04107122356155744</v>
+        <v>-0.04121136673864111</v>
       </c>
       <c r="C58">
-        <v>0.09680694958447529</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.1075104173739333</v>
+      </c>
+      <c r="D58">
+        <v>-0.009867152478923445</v>
+      </c>
+      <c r="E58">
+        <v>-0.0438607613796273</v>
+      </c>
+      <c r="F58">
+        <v>-0.001337979584334472</v>
+      </c>
+      <c r="G58">
+        <v>-0.002730273342099417</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1806390637358385</v>
+        <v>-0.187345282089678</v>
       </c>
       <c r="C59">
-        <v>-0.1584857284495639</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.1656114731990845</v>
+      </c>
+      <c r="D59">
+        <v>-0.09404415148696388</v>
+      </c>
+      <c r="E59">
+        <v>-0.08738789348219335</v>
+      </c>
+      <c r="F59">
+        <v>0.0384872056874001</v>
+      </c>
+      <c r="G59">
+        <v>-0.009484736937440919</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2067490605371292</v>
+        <v>-0.2053459280027576</v>
       </c>
       <c r="C60">
-        <v>0.001564362714538891</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.004972510072395459</v>
+      </c>
+      <c r="D60">
+        <v>-0.1168695449435529</v>
+      </c>
+      <c r="E60">
+        <v>0.1338344391328881</v>
+      </c>
+      <c r="F60">
+        <v>0.05632695290051796</v>
+      </c>
+      <c r="G60">
+        <v>0.09374514803568437</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.06081779466053522</v>
+        <v>-0.0589684442031931</v>
       </c>
       <c r="C61">
-        <v>0.1338076714096487</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.130533036661866</v>
+      </c>
+      <c r="D61">
+        <v>0.01840037086290925</v>
+      </c>
+      <c r="E61">
+        <v>-0.06997334660828565</v>
+      </c>
+      <c r="F61">
+        <v>0.03333738377312635</v>
+      </c>
+      <c r="G61">
+        <v>0.01046919992583278</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1707603240259137</v>
+        <v>-0.1669460774535473</v>
       </c>
       <c r="C62">
-        <v>-0.005481973447879458</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.006386052600265038</v>
+      </c>
+      <c r="D62">
+        <v>-0.007349517213982562</v>
+      </c>
+      <c r="E62">
+        <v>0.1158345924657468</v>
+      </c>
+      <c r="F62">
+        <v>-0.1651619645676292</v>
+      </c>
+      <c r="G62">
+        <v>0.06235049579037356</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.04155290765438944</v>
+        <v>-0.04408729046693555</v>
       </c>
       <c r="C63">
-        <v>0.0802518792694335</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.08362214950948864</v>
+      </c>
+      <c r="D63">
+        <v>0.02393928507261073</v>
+      </c>
+      <c r="E63">
+        <v>-0.0354015652408089</v>
+      </c>
+      <c r="F63">
+        <v>0.01295460344809083</v>
+      </c>
+      <c r="G63">
+        <v>-0.03135977810322956</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1144075733566913</v>
+        <v>-0.1116585096738848</v>
       </c>
       <c r="C64">
-        <v>0.06246497568236324</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.06464827225721614</v>
+      </c>
+      <c r="D64">
+        <v>0.01351221936436621</v>
+      </c>
+      <c r="E64">
+        <v>0.04783345866303786</v>
+      </c>
+      <c r="F64">
+        <v>0.01116901037810363</v>
+      </c>
+      <c r="G64">
+        <v>0.02947881337409734</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1594870642055427</v>
+        <v>-0.1624129863202818</v>
       </c>
       <c r="C65">
-        <v>-0.05413872032734686</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04340626184949013</v>
+      </c>
+      <c r="D65">
+        <v>0.0639600227568804</v>
+      </c>
+      <c r="E65">
+        <v>-0.0009026881552196749</v>
+      </c>
+      <c r="F65">
+        <v>-0.05476259925260488</v>
+      </c>
+      <c r="G65">
+        <v>0.02826766056189748</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.09540272929662112</v>
+        <v>-0.09116487358714669</v>
       </c>
       <c r="C66">
-        <v>0.1320029547750354</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.1302170871695975</v>
+      </c>
+      <c r="D66">
+        <v>0.03748450857463839</v>
+      </c>
+      <c r="E66">
+        <v>-0.08728158242280848</v>
+      </c>
+      <c r="F66">
+        <v>0.02186807542221957</v>
+      </c>
+      <c r="G66">
+        <v>-0.01105678151351386</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05089543691414686</v>
+        <v>-0.04408731786046579</v>
       </c>
       <c r="C67">
-        <v>0.07911847900663749</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.07264376726664139</v>
+      </c>
+      <c r="D67">
+        <v>-0.07727086280366045</v>
+      </c>
+      <c r="E67">
+        <v>0.03047458159583905</v>
+      </c>
+      <c r="F67">
+        <v>-0.05418382298494931</v>
+      </c>
+      <c r="G67">
+        <v>-0.04661018938399877</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1469230181024871</v>
+        <v>-0.1472101621658344</v>
       </c>
       <c r="C68">
-        <v>-0.2529994123522334</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.2479631647136239</v>
+      </c>
+      <c r="D68">
+        <v>0.0407471464610781</v>
+      </c>
+      <c r="E68">
+        <v>-0.1531462224597487</v>
+      </c>
+      <c r="F68">
+        <v>0.07095466765207181</v>
+      </c>
+      <c r="G68">
+        <v>0.04140184303456453</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03891469438075078</v>
+        <v>-0.03682661894305483</v>
       </c>
       <c r="C69">
-        <v>0.01736895166767572</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.02063637554236594</v>
+      </c>
+      <c r="D69">
+        <v>-0.02392683648825609</v>
+      </c>
+      <c r="E69">
+        <v>0.05735196027048317</v>
+      </c>
+      <c r="F69">
+        <v>-0.05164170493584887</v>
+      </c>
+      <c r="G69">
+        <v>-0.04105903940955428</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.07639084745923089</v>
+        <v>-0.07374774012382017</v>
       </c>
       <c r="C70">
-        <v>0.08723350767297113</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.08987907961576794</v>
+      </c>
+      <c r="D70">
+        <v>-0.6675550787339272</v>
+      </c>
+      <c r="E70">
+        <v>0.111553931510094</v>
+      </c>
+      <c r="F70">
+        <v>0.2008130287986531</v>
+      </c>
+      <c r="G70">
+        <v>0.4372091929494953</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1688389489823999</v>
+        <v>-0.1711553383318864</v>
       </c>
       <c r="C71">
-        <v>-0.2544477653977491</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.2518307642206713</v>
+      </c>
+      <c r="D71">
+        <v>0.03073566392689662</v>
+      </c>
+      <c r="E71">
+        <v>-0.1587385532216012</v>
+      </c>
+      <c r="F71">
+        <v>0.08384394035428111</v>
+      </c>
+      <c r="G71">
+        <v>0.03440548215711635</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1434786853990587</v>
+        <v>-0.148435075589643</v>
       </c>
       <c r="C72">
-        <v>0.009050567585791874</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.007998332382098744</v>
+      </c>
+      <c r="D72">
+        <v>0.03026228834845338</v>
+      </c>
+      <c r="E72">
+        <v>0.03996489099869192</v>
+      </c>
+      <c r="F72">
+        <v>-0.1153592493841787</v>
+      </c>
+      <c r="G72">
+        <v>-0.03674933585037764</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1892167800281299</v>
+        <v>-0.1988139439275274</v>
       </c>
       <c r="C73">
-        <v>0.01721263240742346</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.0199509202189497</v>
+      </c>
+      <c r="D73">
+        <v>-0.0002024466839824111</v>
+      </c>
+      <c r="E73">
+        <v>0.1060285118641113</v>
+      </c>
+      <c r="F73">
+        <v>-0.01267979605520134</v>
+      </c>
+      <c r="G73">
+        <v>-0.02629842373249758</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08465967950049325</v>
+        <v>-0.08418333699316738</v>
       </c>
       <c r="C74">
-        <v>0.004680931643271322</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.01093539926228271</v>
+      </c>
+      <c r="D74">
+        <v>0.04864364834219351</v>
+      </c>
+      <c r="E74">
+        <v>0.09972704151477224</v>
+      </c>
+      <c r="F74">
+        <v>-0.07069678440398951</v>
+      </c>
+      <c r="G74">
+        <v>0.009956532225634373</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1208984325946071</v>
+        <v>-0.1133482695102097</v>
       </c>
       <c r="C75">
-        <v>0.02599056176665255</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02688980649935252</v>
+      </c>
+      <c r="D75">
+        <v>0.0002260197492028844</v>
+      </c>
+      <c r="E75">
+        <v>0.08325125892833962</v>
+      </c>
+      <c r="F75">
+        <v>-0.1786215453809302</v>
+      </c>
+      <c r="G75">
+        <v>0.01259454157274956</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2436,597 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07784400293834214</v>
+        <v>-0.08546207683696797</v>
       </c>
       <c r="C77">
-        <v>0.1223903340232491</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.1286675103548238</v>
+      </c>
+      <c r="D77">
+        <v>0.04620330113913951</v>
+      </c>
+      <c r="E77">
+        <v>-0.0894689940113991</v>
+      </c>
+      <c r="F77">
+        <v>0.05826545050238013</v>
+      </c>
+      <c r="G77">
+        <v>0.1106327287893943</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.07487044122929074</v>
+        <v>-0.08160466120750859</v>
       </c>
       <c r="C78">
-        <v>0.1298545844526969</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.1317103687427891</v>
+      </c>
+      <c r="D78">
+        <v>0.0323830040236719</v>
+      </c>
+      <c r="E78">
+        <v>-0.09859364045382477</v>
+      </c>
+      <c r="F78">
+        <v>-0.05911447712986175</v>
+      </c>
+      <c r="G78">
+        <v>0.01568287402371179</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.169280977475805</v>
+        <v>-0.1647046779521334</v>
       </c>
       <c r="C79">
-        <v>0.02000130587840132</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.01947604467635016</v>
+      </c>
+      <c r="D79">
+        <v>-0.005711921651504543</v>
+      </c>
+      <c r="E79">
+        <v>0.05760781321453948</v>
+      </c>
+      <c r="F79">
+        <v>-0.1504511480667685</v>
+      </c>
+      <c r="G79">
+        <v>0.02618243038820844</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.07861770479317612</v>
+        <v>-0.07435813334938124</v>
       </c>
       <c r="C80">
-        <v>0.08220564681138098</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.07794744544524582</v>
+      </c>
+      <c r="D80">
+        <v>0.011130907475322</v>
+      </c>
+      <c r="E80">
+        <v>-0.04387696385152979</v>
+      </c>
+      <c r="F80">
+        <v>0.08002687142263579</v>
+      </c>
+      <c r="G80">
+        <v>-0.09719908936030229</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1138077969310075</v>
+        <v>-0.1067509983723396</v>
       </c>
       <c r="C81">
-        <v>-0.009022217914022341</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.008258232457379586</v>
+      </c>
+      <c r="D81">
+        <v>-0.02779026012064094</v>
+      </c>
+      <c r="E81">
+        <v>0.1000942957521881</v>
+      </c>
+      <c r="F81">
+        <v>-0.1546898589588957</v>
+      </c>
+      <c r="G81">
+        <v>-0.03473095643232654</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1632852722635247</v>
+        <v>-0.1587987824809971</v>
       </c>
       <c r="C82">
-        <v>-0.01564590195280233</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.01316124223892599</v>
+      </c>
+      <c r="D82">
+        <v>0.07026687804708864</v>
+      </c>
+      <c r="E82">
+        <v>0.1396504907217672</v>
+      </c>
+      <c r="F82">
+        <v>-0.1355458854907145</v>
+      </c>
+      <c r="G82">
+        <v>0.03665390422296663</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.0542447261655614</v>
+        <v>-0.05086012555992929</v>
       </c>
       <c r="C83">
-        <v>0.0655534985123733</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.0598295376970784</v>
+      </c>
+      <c r="D83">
+        <v>-0.03582861853443042</v>
+      </c>
+      <c r="E83">
+        <v>-0.01161958342868988</v>
+      </c>
+      <c r="F83">
+        <v>0.02256522306089181</v>
+      </c>
+      <c r="G83">
+        <v>0.0009871020836431485</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.04667618035554271</v>
+        <v>-0.04565469972588843</v>
       </c>
       <c r="C84">
-        <v>0.07307310866402962</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.07134843250904857</v>
+      </c>
+      <c r="D84">
+        <v>-0.02682185989472405</v>
+      </c>
+      <c r="E84">
+        <v>-0.00674204500645998</v>
+      </c>
+      <c r="F84">
+        <v>-0.02896500205427957</v>
+      </c>
+      <c r="G84">
+        <v>0.01851196095316785</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.14040510253332</v>
+        <v>-0.1354592132710965</v>
       </c>
       <c r="C85">
-        <v>0.007767287042092987</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.007994046425602298</v>
+      </c>
+      <c r="D85">
+        <v>0.06385807606135953</v>
+      </c>
+      <c r="E85">
+        <v>0.05971770803065547</v>
+      </c>
+      <c r="F85">
+        <v>-0.1561654173480267</v>
+      </c>
+      <c r="G85">
+        <v>0.03299371584881387</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.0834386725294432</v>
+        <v>-0.08386312959201024</v>
       </c>
       <c r="C86">
-        <v>0.1421081913216331</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.1487339060698845</v>
+      </c>
+      <c r="D86">
+        <v>-0.4858748865172701</v>
+      </c>
+      <c r="E86">
+        <v>-0.4889383813503809</v>
+      </c>
+      <c r="F86">
+        <v>-0.2086359898443972</v>
+      </c>
+      <c r="G86">
+        <v>-0.511917531125992</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.08882053360621119</v>
+        <v>-0.08430149901367869</v>
       </c>
       <c r="C87">
-        <v>0.1052210128879659</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.1012625673045695</v>
+      </c>
+      <c r="D87">
+        <v>0.1357453288952836</v>
+      </c>
+      <c r="E87">
+        <v>-0.07789734880707921</v>
+      </c>
+      <c r="F87">
+        <v>0.2115537180046758</v>
+      </c>
+      <c r="G87">
+        <v>0.03142680255434811</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.05940142123117528</v>
+        <v>-0.05884336117930663</v>
       </c>
       <c r="C88">
-        <v>0.06444145889376245</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.06512082557194716</v>
+      </c>
+      <c r="D88">
+        <v>-0.0009404331667477061</v>
+      </c>
+      <c r="E88">
+        <v>0.02855565294196032</v>
+      </c>
+      <c r="F88">
+        <v>-0.03259181053144494</v>
+      </c>
+      <c r="G88">
+        <v>0.01930430516561208</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1534318376678941</v>
+        <v>-0.1525976624624877</v>
       </c>
       <c r="C89">
-        <v>-0.2009590166210038</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.2069479935346006</v>
+      </c>
+      <c r="D89">
+        <v>0.0368487642573427</v>
+      </c>
+      <c r="E89">
+        <v>-0.0926946331383858</v>
+      </c>
+      <c r="F89">
+        <v>0.06621166347676812</v>
+      </c>
+      <c r="G89">
+        <v>0.007637494356882513</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1864908667159831</v>
+        <v>-0.1886037859717426</v>
       </c>
       <c r="C90">
-        <v>-0.2355154250143885</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.2354169303143024</v>
+      </c>
+      <c r="D90">
+        <v>0.03989619086403416</v>
+      </c>
+      <c r="E90">
+        <v>-0.1765938449263352</v>
+      </c>
+      <c r="F90">
+        <v>0.125283576907697</v>
+      </c>
+      <c r="G90">
+        <v>0.01457797489849648</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1275750464206876</v>
+        <v>-0.1210333930187899</v>
       </c>
       <c r="C91">
-        <v>-0.02226873444794915</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.02109112311800597</v>
+      </c>
+      <c r="D91">
+        <v>-0.04719294309668869</v>
+      </c>
+      <c r="E91">
+        <v>0.1191102800809055</v>
+      </c>
+      <c r="F91">
+        <v>-0.1769754713472518</v>
+      </c>
+      <c r="G91">
+        <v>-0.04975310440639738</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1731029558097847</v>
+        <v>-0.1746632890237817</v>
       </c>
       <c r="C92">
-        <v>-0.2578765757847175</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.2688750395049639</v>
+      </c>
+      <c r="D92">
+        <v>0.02272733511812999</v>
+      </c>
+      <c r="E92">
+        <v>-0.2063316815580012</v>
+      </c>
+      <c r="F92">
+        <v>0.05763186316857902</v>
+      </c>
+      <c r="G92">
+        <v>0.02118936080230283</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1795389654597326</v>
+        <v>-0.1864471803468472</v>
       </c>
       <c r="C93">
-        <v>-0.2215297400280437</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.2232971232667662</v>
+      </c>
+      <c r="D93">
+        <v>-0.004658538915925906</v>
+      </c>
+      <c r="E93">
+        <v>-0.1208259167267896</v>
+      </c>
+      <c r="F93">
+        <v>0.02678909121610879</v>
+      </c>
+      <c r="G93">
+        <v>0.04183513098150637</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1191352067144372</v>
+        <v>-0.1138592153387258</v>
       </c>
       <c r="C94">
-        <v>0.03394537783603412</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03375457606429214</v>
+      </c>
+      <c r="D94">
+        <v>-0.00410834345402479</v>
+      </c>
+      <c r="E94">
+        <v>0.0699115608213749</v>
+      </c>
+      <c r="F94">
+        <v>-0.1630009020230326</v>
+      </c>
+      <c r="G94">
+        <v>0.006389507306384037</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1193948883804502</v>
+        <v>-0.1183823259469932</v>
       </c>
       <c r="C95">
-        <v>0.1069355578503983</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.1180780000722422</v>
+      </c>
+      <c r="D95">
+        <v>0.005103851108042539</v>
+      </c>
+      <c r="E95">
+        <v>-0.08419618237415606</v>
+      </c>
+      <c r="F95">
+        <v>0.01689092298406827</v>
+      </c>
+      <c r="G95">
+        <v>0.001329201865518873</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.1162687604957995</v>
+        <v>-0.1145894351401102</v>
       </c>
       <c r="C96">
-        <v>0.1229052460570029</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.125548005840926</v>
+      </c>
+      <c r="D96">
+        <v>-0.04684757745263522</v>
+      </c>
+      <c r="E96">
+        <v>0.005902294722538983</v>
+      </c>
+      <c r="F96">
+        <v>0.01531868237160794</v>
+      </c>
+      <c r="G96">
+        <v>0.1402849453844763</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.2034805917391839</v>
+        <v>-0.207467235269409</v>
       </c>
       <c r="C97">
-        <v>0.004202066862201876</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.002190440619679815</v>
+      </c>
+      <c r="D97">
+        <v>-0.06649953535958492</v>
+      </c>
+      <c r="E97">
+        <v>0.4940201828520876</v>
+      </c>
+      <c r="F97">
+        <v>0.430020904805797</v>
+      </c>
+      <c r="G97">
+        <v>-0.6144450013279155</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1964586979846623</v>
+        <v>-0.2041587770340471</v>
       </c>
       <c r="C98">
-        <v>0.01936311196462893</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.02099082674357763</v>
+      </c>
+      <c r="D98">
+        <v>-0.07586121882864966</v>
+      </c>
+      <c r="E98">
+        <v>0.06382664734868544</v>
+      </c>
+      <c r="F98">
+        <v>0.1816884895882789</v>
+      </c>
+      <c r="G98">
+        <v>0.05307506281301259</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.0504145784336011</v>
+        <v>-0.05019286889283571</v>
       </c>
       <c r="C99">
-        <v>0.05797351410067634</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.05792273635335559</v>
+      </c>
+      <c r="D99">
+        <v>0.02134615741527036</v>
+      </c>
+      <c r="E99">
+        <v>-0.02480899260601862</v>
+      </c>
+      <c r="F99">
+        <v>0.02006493840807401</v>
+      </c>
+      <c r="G99">
+        <v>0.003444092955905751</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.1057779176378143</v>
+        <v>-0.1019639084836189</v>
       </c>
       <c r="C100">
-        <v>0.2989565603431332</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.2869199862611295</v>
+      </c>
+      <c r="D100">
+        <v>0.00573812657481468</v>
+      </c>
+      <c r="E100">
+        <v>-0.03852188970394481</v>
+      </c>
+      <c r="F100">
+        <v>0.3758352959800751</v>
+      </c>
+      <c r="G100">
+        <v>0.1549792948096089</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.02548276071806507</v>
+        <v>-0.02684420290080243</v>
       </c>
       <c r="C101">
-        <v>0.05529518988069166</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.05526256657287391</v>
+      </c>
+      <c r="D101">
+        <v>0.01083490954119949</v>
+      </c>
+      <c r="E101">
+        <v>-0.06698790786429082</v>
+      </c>
+      <c r="F101">
+        <v>-0.001394030042972678</v>
+      </c>
+      <c r="G101">
+        <v>-0.01270761389781146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
